--- a/relative graphics.xlsx
+++ b/relative graphics.xlsx
@@ -98,15 +98,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -114,13 +120,36 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -225,7 +254,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$2</c:f>
+              <c:f>Sheet1!$B$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -246,7 +275,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$1:$G$1</c:f>
+              <c:f>Sheet1!$C$2:$H$2</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -272,7 +301,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$G$2</c:f>
+              <c:f>Sheet1!$C$3:$H$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -308,7 +337,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$3</c:f>
+              <c:f>Sheet1!$B$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -329,7 +358,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$1:$G$1</c:f>
+              <c:f>Sheet1!$C$2:$H$2</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -355,7 +384,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$3:$G$3</c:f>
+              <c:f>Sheet1!$C$4:$H$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -391,7 +420,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$4</c:f>
+              <c:f>Sheet1!$B$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -412,7 +441,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$1:$G$1</c:f>
+              <c:f>Sheet1!$C$2:$H$2</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -438,7 +467,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$4:$G$4</c:f>
+              <c:f>Sheet1!$C$5:$H$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -474,7 +503,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$5</c:f>
+              <c:f>Sheet1!$B$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -495,7 +524,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$1:$G$1</c:f>
+              <c:f>Sheet1!$C$2:$H$2</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -521,7 +550,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$5:$G$5</c:f>
+              <c:f>Sheet1!$C$6:$H$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1296,15 +1325,15 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>217170</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>102870</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>521970</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>41910</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1590,248 +1619,250 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G9"/>
+  <dimension ref="B1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:G9"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.77734375" customWidth="1"/>
+    <col min="2" max="2" width="15.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H2" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+    <row r="3" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B2">
+      <c r="C3" s="3">
         <v>28434</v>
       </c>
-      <c r="C2">
+      <c r="D3" s="3">
         <v>27262</v>
       </c>
-      <c r="D2">
+      <c r="E3" s="3">
         <v>27735</v>
       </c>
-      <c r="E2">
+      <c r="F3" s="3">
         <v>26397</v>
       </c>
-      <c r="F2">
+      <c r="G3" s="3">
         <v>27048</v>
       </c>
-      <c r="G2">
+      <c r="H3" s="3">
         <v>24898</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+    <row r="4" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B3">
+      <c r="C4" s="3">
         <v>420</v>
       </c>
-      <c r="C3">
+      <c r="D4" s="3">
         <v>1645</v>
       </c>
-      <c r="D3">
+      <c r="E4" s="3">
         <v>1033</v>
       </c>
-      <c r="E3">
+      <c r="F4" s="3">
         <v>1612</v>
       </c>
-      <c r="F3">
+      <c r="G4" s="3">
         <v>1253</v>
       </c>
-      <c r="G3">
+      <c r="H4" s="3">
         <v>2259</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+    <row r="5" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B4">
+      <c r="C5" s="3">
         <v>328</v>
       </c>
-      <c r="C4">
+      <c r="D5" s="3">
         <v>370</v>
       </c>
-      <c r="D4">
+      <c r="E5" s="3">
         <v>458</v>
       </c>
-      <c r="E4">
+      <c r="F5" s="3">
         <v>981</v>
       </c>
-      <c r="F4">
+      <c r="G5" s="3">
         <v>815</v>
       </c>
-      <c r="G4">
+      <c r="H5" s="3">
         <v>1594</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+    <row r="6" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B5">
+      <c r="C6" s="3">
         <v>273</v>
       </c>
-      <c r="C5">
+      <c r="D6" s="3">
         <v>180</v>
       </c>
-      <c r="D5">
+      <c r="E6" s="3">
         <v>229</v>
       </c>
-      <c r="E5">
+      <c r="F6" s="3">
         <v>465</v>
       </c>
-      <c r="F5">
+      <c r="G6" s="3">
         <v>339</v>
       </c>
-      <c r="G5">
+      <c r="H6" s="3">
         <v>753</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+    <row r="7" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B6">
-        <f>B2/SUM(B2:B5)</f>
+      <c r="C7" s="3">
+        <f>C3/SUM(C3:C6)</f>
         <v>0.96533695467662539</v>
       </c>
-      <c r="C6">
-        <f t="shared" ref="C6:G6" si="0">C2/SUM(C2:C5)</f>
+      <c r="D7" s="3">
+        <f t="shared" ref="D7:H7" si="0">D3/SUM(D3:D6)</f>
         <v>0.9254846046780052</v>
       </c>
-      <c r="D6">
+      <c r="E7" s="3">
         <f t="shared" si="0"/>
         <v>0.94160583941605835</v>
       </c>
-      <c r="E6">
+      <c r="F7" s="3">
         <f t="shared" si="0"/>
         <v>0.89618061449668984</v>
       </c>
-      <c r="F6">
+      <c r="G7" s="3">
         <f t="shared" si="0"/>
         <v>0.91828212527584452</v>
       </c>
-      <c r="G6">
+      <c r="H7" s="3">
         <f t="shared" si="0"/>
         <v>0.84388557483731019</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+    <row r="8" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B7">
-        <f>B3/SUM(B$2:B$5)</f>
+      <c r="C8" s="3">
+        <f>C4/SUM(C$3:C$6)</f>
         <v>1.4259039212357834E-2</v>
       </c>
-      <c r="C7">
-        <f t="shared" ref="C7:G7" si="1">C3/SUM(C$2:C$5)</f>
+      <c r="D8" s="3">
+        <f t="shared" ref="D8:H8" si="1">D4/SUM(D$3:D$6)</f>
         <v>5.5844111756119086E-2</v>
       </c>
-      <c r="D7">
+      <c r="E8" s="3">
         <f t="shared" si="1"/>
         <v>3.5070446443727719E-2</v>
       </c>
-      <c r="E7">
+      <c r="F8" s="3">
         <f t="shared" si="1"/>
         <v>5.4727550500763875E-2</v>
       </c>
-      <c r="F7">
+      <c r="G8" s="3">
         <f t="shared" si="1"/>
         <v>4.2539466983534203E-2</v>
       </c>
-      <c r="G7">
+      <c r="H8" s="3">
         <f t="shared" si="1"/>
         <v>7.6565889370932755E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+    <row r="9" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B8">
-        <f t="shared" ref="B8:G9" si="2">B4/SUM(B$2:B$5)</f>
+      <c r="C9" s="3">
+        <f t="shared" ref="C9:H10" si="2">C5/SUM(C$3:C$6)</f>
         <v>1.1135630622984213E-2</v>
       </c>
-      <c r="C8">
+      <c r="D9" s="3">
         <f t="shared" si="2"/>
         <v>1.2560681671589096E-2</v>
       </c>
-      <c r="D8">
+      <c r="E9" s="3">
         <f t="shared" si="2"/>
         <v>1.554914276014259E-2</v>
       </c>
-      <c r="E8">
+      <c r="F9" s="3">
         <f t="shared" si="2"/>
         <v>3.3305041588864367E-2</v>
       </c>
-      <c r="F8">
+      <c r="G9" s="3">
         <f t="shared" si="2"/>
         <v>2.7669326090646748E-2</v>
       </c>
-      <c r="G8">
+      <c r="H9" s="3">
         <f t="shared" si="2"/>
         <v>5.4026572668112796E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+    <row r="10" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B9">
+      <c r="C10" s="3">
         <f t="shared" si="2"/>
         <v>9.2683754880325923E-3</v>
       </c>
-      <c r="C9">
+      <c r="D10" s="3">
         <f t="shared" si="2"/>
         <v>6.1106018942865869E-3</v>
       </c>
-      <c r="D9">
+      <c r="E10" s="3">
         <f t="shared" si="2"/>
         <v>7.7745713800712948E-3</v>
       </c>
-      <c r="E9">
+      <c r="F10" s="3">
         <f t="shared" si="2"/>
         <v>1.5786793413681888E-2</v>
       </c>
-      <c r="F9">
+      <c r="G10" s="3">
         <f t="shared" si="2"/>
         <v>1.1509081649974537E-2</v>
       </c>
-      <c r="G9">
+      <c r="H10" s="3">
         <f t="shared" si="2"/>
         <v>2.5521963123644253E-2</v>
       </c>
     </row>
+    <row r="11" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
